--- a/data/trans_dic/PCS12_SP_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Estudios-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>45,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>61,07%</t>
+          <t>61,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>54,52%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,92; 49,27</t>
+          <t>40,65; 49,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>58,12; 63,98</t>
+          <t>58,09; 63,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>52,33; 57,16</t>
+          <t>52,04; 56,77</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>23,94%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,25; 28,44</t>
+          <t>18,02; 49,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,75; 24,28</t>
+          <t>15,03; 23,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,59; 24,65</t>
+          <t>18,79; 36,81</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>14,27%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,41; 15,67</t>
+          <t>10,26; 15,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,65; 18,25</t>
+          <t>13,57; 18,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,81; 16,13</t>
+          <t>12,64; 15,98</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>27,59%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,31; 27,3</t>
+          <t>21,11; 45,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,33; 31,16</t>
+          <t>22,26; 30,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,99; 28,23</t>
+          <t>24,31; 35,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PCS12_SP_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,37; 35,01</t>
+          <t>29,12; 34,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,22; 39,53</t>
+          <t>32,59; 39,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,01; 39,53</t>
+          <t>32,48; 39,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,65; 49,12</t>
+          <t>41,23; 49,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,3; 51,79</t>
+          <t>46,33; 51,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,63; 55,22</t>
+          <t>49,45; 55,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,81; 54,49</t>
+          <t>47,7; 54,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>58,09; 63,94</t>
+          <t>58,45; 64,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,71; 43,57</t>
+          <t>39,6; 43,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>43,38; 47,59</t>
+          <t>43,38; 47,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42,11; 46,94</t>
+          <t>42,12; 46,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>52,04; 56,77</t>
+          <t>52,29; 56,97</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,14</t>
+          <t>7,34; 10,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,41; 12,4</t>
+          <t>9,58; 12,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,57; 13,42</t>
+          <t>10,51; 13,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,02; 49,65</t>
+          <t>17,82; 49,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,88; 15,35</t>
+          <t>12,0; 15,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,82; 18,44</t>
+          <t>14,75; 18,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 19,2</t>
+          <t>15,63; 19,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 23,67</t>
+          <t>15,19; 23,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,98; 12,1</t>
+          <t>9,88; 12,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 14,76</t>
+          <t>12,32; 14,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,44; 15,77</t>
+          <t>13,43; 15,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,79; 36,81</t>
+          <t>18,93; 40,04</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,26</t>
+          <t>5,46; 10,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 12,95</t>
+          <t>6,84; 12,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 11,09</t>
+          <t>6,25; 11,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 15,53</t>
+          <t>10,23; 15,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 15,85</t>
+          <t>9,38; 15,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,0; 12,67</t>
+          <t>7,1; 12,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,82; 15,58</t>
+          <t>9,91; 15,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,57; 18,07</t>
+          <t>13,61; 18,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,07; 11,86</t>
+          <t>7,9; 11,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 11,77</t>
+          <t>7,64; 11,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,64</t>
+          <t>8,69; 13,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,64; 15,98</t>
+          <t>12,54; 15,91</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 17,18</t>
+          <t>14,65; 17,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 19,31</t>
+          <t>16,53; 19,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 18,13</t>
+          <t>15,24; 17,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,11; 45,28</t>
+          <t>21,13; 45,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 28,95</t>
+          <t>25,62; 28,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,66; 30,64</t>
+          <t>27,45; 30,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,58; 27,8</t>
+          <t>24,67; 27,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,26; 30,61</t>
+          <t>22,97; 30,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,61; 22,62</t>
+          <t>20,52; 22,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,56; 24,61</t>
+          <t>22,59; 24,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,51; 22,6</t>
+          <t>20,52; 22,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,31; 35,96</t>
+          <t>24,56; 36,15</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>329609</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>353112</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>272595</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>229727</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>644688</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>700013</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>507408</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>455030</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>974296</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1053125</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>780003</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>684756</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>300418; 358421</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>317654; 384404</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>245010; 296839</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>210442; 252184</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>609290; 678170</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>661603; 736544</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>474406; 540171</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>435797; 477215</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>929251; 1022323</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1003107; 1099750</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>736660; 820669</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>656676; 715523</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1245</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>146075</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>212457</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>246277</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>620057</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>215204</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>290188</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>347368</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>460709</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>361279</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>502646</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>593645</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1080766</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>124248; 170490</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>188056; 245589</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>218245; 274005</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>406473; 1134287</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>190521; 245874</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>259237; 324256</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>310869; 383368</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>339150; 529555</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>324217; 398363</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>458663; 549159</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>545687; 640185</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>854580; 1807451</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41996</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46122</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>46580</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>82305</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>59180</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>43778</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>68526</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>103442</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>101176</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>89900</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>115105</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>185747</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>30094; 56762</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32889; 60219</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34169; 61397</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>65900; 98714</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>44704; 75139</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32555; 57685</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>54426; 87616</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>89493; 120467</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>81217; 122954</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>71771; 111021</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>95197; 142915</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>163256; 207158</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1417</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1514</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1359</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2751</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>517680</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>611692</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>565452</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>932089</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>919072</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1033979</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>923301</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1019181</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1436752</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1645671</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1488753</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1951270</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>479996; 560644</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>565188; 658719</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>514660; 607001</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>726030; 1550498</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>865860; 971428</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>975482; 1084477</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>871445; 976704</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>835105; 1104369</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1365870; 1505658</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1575258; 1715690</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1418076; 1562407</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1736497; 2556680</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>